--- a/railway/station.xlsx
+++ b/railway/station.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="940" yWindow="940" windowWidth="24920" windowHeight="34280" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="64000" windowHeight="34280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1007,13 +1007,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1297,7 +1297,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:F53"/>
+      <selection pane="bottomLeft" activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -2425,7 +2425,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2433,7 +2433,7 @@
     <col min="3" max="5" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="54" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>61.5</v>
       </c>
       <c r="F2" s="4">
-        <f>C2+D2/10+E2</f>
+        <f t="shared" ref="F2:F33" si="0">C2+D2/10+E2</f>
         <v>169.4</v>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
         <v>45.8</v>
       </c>
       <c r="F3" s="4">
-        <f>C3+D3/10+E3</f>
+        <f t="shared" si="0"/>
         <v>128.80000000000001</v>
       </c>
     </row>
@@ -2512,7 +2512,7 @@
         <v>44</v>
       </c>
       <c r="F4" s="4">
-        <f>C4+D4/10+E4</f>
+        <f t="shared" si="0"/>
         <v>127.5</v>
       </c>
     </row>
@@ -2533,7 +2533,7 @@
         <v>34</v>
       </c>
       <c r="F5" s="4">
-        <f>C5+D5/10+E5</f>
+        <f t="shared" si="0"/>
         <v>118.3</v>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
         <v>39</v>
       </c>
       <c r="F6" s="4">
-        <f>C6+D6/10+E6</f>
+        <f t="shared" si="0"/>
         <v>113</v>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
         <v>41</v>
       </c>
       <c r="F7" s="4">
-        <f>C7+D7/10+E7</f>
+        <f t="shared" si="0"/>
         <v>112.4</v>
       </c>
     </row>
@@ -2596,7 +2596,7 @@
         <v>32</v>
       </c>
       <c r="F8" s="4">
-        <f>C8+D8/10+E8</f>
+        <f t="shared" si="0"/>
         <v>104.2</v>
       </c>
     </row>
@@ -2617,7 +2617,7 @@
         <v>33.700000000000003</v>
       </c>
       <c r="F9" s="4">
-        <f>C9+D9/10+E9</f>
+        <f t="shared" si="0"/>
         <v>101.60000000000001</v>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
         <v>49</v>
       </c>
       <c r="F10" s="4">
-        <f>C10+D10/10+E10</f>
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
     </row>
@@ -2659,7 +2659,7 @@
         <v>27.8</v>
       </c>
       <c r="F11" s="4">
-        <f>C11+D11/10+E11</f>
+        <f t="shared" si="0"/>
         <v>99.399999999999991</v>
       </c>
     </row>
@@ -2680,7 +2680,7 @@
         <v>37</v>
       </c>
       <c r="F12" s="4">
-        <f>C12+D12/10+E12</f>
+        <f t="shared" si="0"/>
         <v>95.6</v>
       </c>
     </row>
@@ -2701,7 +2701,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="4">
-        <f>C13+D13/10+E13</f>
+        <f t="shared" si="0"/>
         <v>89</v>
       </c>
     </row>
@@ -2722,7 +2722,7 @@
         <v>26</v>
       </c>
       <c r="F14" s="4">
-        <f>C14+D14/10+E14</f>
+        <f t="shared" si="0"/>
         <v>83.3</v>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
         <v>33.5</v>
       </c>
       <c r="F15" s="4">
-        <f>C15+D15/10+E15</f>
+        <f t="shared" si="0"/>
         <v>82.7</v>
       </c>
     </row>
@@ -2764,7 +2764,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="4">
-        <f>C16+D16/10+E16</f>
+        <f t="shared" si="0"/>
         <v>81.5</v>
       </c>
     </row>
@@ -2785,7 +2785,7 @@
         <v>48</v>
       </c>
       <c r="F17" s="4">
-        <f>C17+D17/10+E17</f>
+        <f t="shared" si="0"/>
         <v>77.900000000000006</v>
       </c>
     </row>
@@ -2806,7 +2806,7 @@
         <v>25.5</v>
       </c>
       <c r="F18" s="4">
-        <f>C18+D18/10+E18</f>
+        <f t="shared" si="0"/>
         <v>77.599999999999994</v>
       </c>
     </row>
@@ -2827,7 +2827,7 @@
         <v>25.9</v>
       </c>
       <c r="F19" s="4">
-        <f>C19+D19/10+E19</f>
+        <f t="shared" si="0"/>
         <v>77.400000000000006</v>
       </c>
     </row>
@@ -2848,7 +2848,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="4">
-        <f>C20+D20/10+E20</f>
+        <f t="shared" si="0"/>
         <v>68.400000000000006</v>
       </c>
     </row>
@@ -2869,7 +2869,7 @@
         <v>23</v>
       </c>
       <c r="F21" s="4">
-        <f>C21+D21/10+E21</f>
+        <f t="shared" si="0"/>
         <v>68.3</v>
       </c>
     </row>
@@ -2890,7 +2890,7 @@
         <v>10</v>
       </c>
       <c r="F22" s="4">
-        <f>C22+D22/10+E22</f>
+        <f t="shared" si="0"/>
         <v>68.3</v>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
         <v>15.7</v>
       </c>
       <c r="F23" s="4">
-        <f>C23+D23/10+E23</f>
+        <f t="shared" si="0"/>
         <v>67.900000000000006</v>
       </c>
     </row>
@@ -2932,7 +2932,7 @@
         <v>27</v>
       </c>
       <c r="F24" s="4">
-        <f>C24+D24/10+E24</f>
+        <f t="shared" si="0"/>
         <v>65.400000000000006</v>
       </c>
     </row>
@@ -2953,7 +2953,7 @@
         <v>20.5</v>
       </c>
       <c r="F25" s="4">
-        <f>C25+D25/10+E25</f>
+        <f t="shared" si="0"/>
         <v>64.2</v>
       </c>
     </row>
@@ -2974,7 +2974,7 @@
         <v>4.5</v>
       </c>
       <c r="F26" s="4">
-        <f>C26+D26/10+E26</f>
+        <f t="shared" si="0"/>
         <v>61.8</v>
       </c>
     </row>
@@ -2995,7 +2995,7 @@
         <v>20.6</v>
       </c>
       <c r="F27" s="4">
-        <f>C27+D27/10+E27</f>
+        <f t="shared" si="0"/>
         <v>58.6</v>
       </c>
     </row>
@@ -3016,7 +3016,7 @@
         <v>12</v>
       </c>
       <c r="F28" s="4">
-        <f>C28+D28/10+E28</f>
+        <f t="shared" si="0"/>
         <v>58.5</v>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
         <v>16.2</v>
       </c>
       <c r="F29" s="4">
-        <f>C29+D29/10+E29</f>
+        <f t="shared" si="0"/>
         <v>52.7</v>
       </c>
     </row>
@@ -3058,7 +3058,7 @@
         <v>6.8</v>
       </c>
       <c r="F30" s="4">
-        <f>C30+D30/10+E30</f>
+        <f t="shared" si="0"/>
         <v>49.8</v>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
         <v>19.7</v>
       </c>
       <c r="F31" s="4">
-        <f>C31+D31/10+E31</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
@@ -3100,7 +3100,7 @@
         <v>13.5</v>
       </c>
       <c r="F32" s="4">
-        <f>C32+D32/10+E32</f>
+        <f t="shared" si="0"/>
         <v>45.6</v>
       </c>
     </row>
@@ -3121,7 +3121,7 @@
         <v>6.3</v>
       </c>
       <c r="F33" s="4">
-        <f>C33+D33/10+E33</f>
+        <f t="shared" si="0"/>
         <v>44.9</v>
       </c>
     </row>
@@ -3142,7 +3142,7 @@
         <v>3</v>
       </c>
       <c r="F34" s="4">
-        <f>C34+D34/10+E34</f>
+        <f t="shared" ref="F34:F65" si="1">C34+D34/10+E34</f>
         <v>44.8</v>
       </c>
     </row>
@@ -3163,7 +3163,7 @@
         <v>7</v>
       </c>
       <c r="F35" s="4">
-        <f>C35+D35/10+E35</f>
+        <f t="shared" si="1"/>
         <v>44.7</v>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
         <v>3.5</v>
       </c>
       <c r="F36" s="4">
-        <f>C36+D36/10+E36</f>
+        <f t="shared" si="1"/>
         <v>43.9</v>
       </c>
     </row>
@@ -3205,7 +3205,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F37" s="4">
-        <f>C37+D37/10+E37</f>
+        <f t="shared" si="1"/>
         <v>43.800000000000004</v>
       </c>
     </row>
@@ -3226,7 +3226,7 @@
         <v>10</v>
       </c>
       <c r="F38" s="4">
-        <f>C38+D38/10+E38</f>
+        <f t="shared" si="1"/>
         <v>42.5</v>
       </c>
     </row>
@@ -3247,7 +3247,7 @@
         <v>17.2</v>
       </c>
       <c r="F39" s="4">
-        <f>C39+D39/10+E39</f>
+        <f t="shared" si="1"/>
         <v>42.4</v>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
         <v>5.9</v>
       </c>
       <c r="F40" s="4">
-        <f>C40+D40/10+E40</f>
+        <f t="shared" si="1"/>
         <v>42.3</v>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
         <v>10</v>
       </c>
       <c r="F41" s="4">
-        <f>C41+D41/10+E41</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
@@ -3310,7 +3310,7 @@
         <v>6</v>
       </c>
       <c r="F42" s="4">
-        <f>C42+D42/10+E42</f>
+        <f t="shared" si="1"/>
         <v>39.6</v>
       </c>
     </row>
@@ -3331,7 +3331,7 @@
         <v>7.3</v>
       </c>
       <c r="F43" s="4">
-        <f>C43+D43/10+E43</f>
+        <f t="shared" si="1"/>
         <v>38.1</v>
       </c>
     </row>
@@ -3352,7 +3352,7 @@
         <v>3.2</v>
       </c>
       <c r="F44" s="4">
-        <f>C44+D44/10+E44</f>
+        <f t="shared" si="1"/>
         <v>37.6</v>
       </c>
     </row>
@@ -3373,7 +3373,7 @@
         <v>6.8</v>
       </c>
       <c r="F45" s="4">
-        <f>C45+D45/10+E45</f>
+        <f t="shared" si="1"/>
         <v>36.799999999999997</v>
       </c>
     </row>
@@ -3394,7 +3394,7 @@
         <v>10</v>
       </c>
       <c r="F46" s="4">
-        <f>C46+D46/10+E46</f>
+        <f t="shared" si="1"/>
         <v>33.6</v>
       </c>
     </row>
@@ -3415,7 +3415,7 @@
         <v>6</v>
       </c>
       <c r="F47" s="4">
-        <f>C47+D47/10+E47</f>
+        <f t="shared" si="1"/>
         <v>32.700000000000003</v>
       </c>
     </row>
@@ -3436,7 +3436,7 @@
         <v>1.2</v>
       </c>
       <c r="F48" s="4">
-        <f>C48+D48/10+E48</f>
+        <f t="shared" si="1"/>
         <v>21.8</v>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="4">
-        <f>C49+D49/10+E49</f>
+        <f t="shared" si="1"/>
         <v>14.4</v>
       </c>
     </row>
@@ -3478,7 +3478,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="4">
-        <f>C50+D50/10+E50</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="4">
-        <f>C51+D51/10+E51</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="4">
-        <f>C52+D52/10+E52</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>

--- a/railway/station.xlsx
+++ b/railway/station.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="15180" windowHeight="22840" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24820" windowHeight="34280" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="99">
   <si>
     <t>北京</t>
     <rPh sb="0" eb="1">
@@ -863,20 +863,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>jast</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地铁线路
-(建成)</t>
-    <rPh sb="0" eb="1">
-      <t>fbqr</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xgkh</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>vfdn</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1022,6 +1008,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1030,12 +1022,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1316,9 +1302,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomLeft" activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1334,25 +1320,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1397,11 +1383,11 @@
         <v>44</v>
       </c>
       <c r="F3" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" ref="G3:G47" si="0">C3+D3/10+E3+F3*2.5</f>
-        <v>132.5</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2409,15 +2395,15 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
@@ -2437,7 +2423,7 @@
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3">
-        <f t="shared" ref="G3:G53" si="1">C49+D49/10+E49</f>
+        <f t="shared" ref="G49:G53" si="1">C49+D49/10+E49</f>
         <v>64.2</v>
       </c>
     </row>
@@ -2543,36 +2529,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="54" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" ht="36" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="6" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2596,7 +2585,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="3">
-        <f>C2+D2/10+E2+F2*2.5</f>
+        <f t="shared" ref="G2:G24" si="0">C2+D2/10+E2+F2*2.5</f>
         <v>174.4</v>
       </c>
     </row>
@@ -2620,7 +2609,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="3">
-        <f>C3+D3/10+E3+F3*2.5</f>
+        <f t="shared" si="0"/>
         <v>138.80000000000001</v>
       </c>
     </row>
@@ -2641,11 +2630,11 @@
         <v>44</v>
       </c>
       <c r="F4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" s="3">
-        <f>C4+D4/10+E4+F4*2.5</f>
-        <v>132.5</v>
+        <f t="shared" si="0"/>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -2668,7 +2657,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="3">
-        <f>C5+D5/10+E5+F5*2.5</f>
+        <f t="shared" si="0"/>
         <v>123.3</v>
       </c>
     </row>
@@ -2692,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="3">
-        <f>C6+D6/10+E6+F6*2.5</f>
+        <f t="shared" si="0"/>
         <v>115.5</v>
       </c>
     </row>
@@ -2716,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="3">
-        <f>C7+D7/10+E7+F7*2.5</f>
+        <f t="shared" si="0"/>
         <v>114.9</v>
       </c>
     </row>
@@ -2740,7 +2729,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="3">
-        <f>C8+D8/10+E8+F8*2.5</f>
+        <f t="shared" si="0"/>
         <v>109.2</v>
       </c>
     </row>
@@ -2764,7 +2753,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="3">
-        <f>C9+D9/10+E9+F9*2.5</f>
+        <f t="shared" si="0"/>
         <v>104.10000000000001</v>
       </c>
     </row>
@@ -2788,7 +2777,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="3">
-        <f>C10+D10/10+E10+F10*2.5</f>
+        <f t="shared" si="0"/>
         <v>103.5</v>
       </c>
     </row>
@@ -2812,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="3">
-        <f>C11+D11/10+E11+F11*2.5</f>
+        <f t="shared" si="0"/>
         <v>101.89999999999999</v>
       </c>
     </row>
@@ -2836,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="3">
-        <f>C12+D12/10+E12+F12*2.5</f>
+        <f t="shared" si="0"/>
         <v>98.1</v>
       </c>
     </row>
@@ -2860,7 +2849,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="3">
-        <f>C13+D13/10+E13+F13*2.5</f>
+        <f t="shared" si="0"/>
         <v>94</v>
       </c>
     </row>
@@ -2884,7 +2873,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="3">
-        <f>C14+D14/10+E14+F14*2.5</f>
+        <f t="shared" si="0"/>
         <v>86.5</v>
       </c>
     </row>
@@ -2908,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="3">
-        <f>C15+D15/10+E15+F15*2.5</f>
+        <f t="shared" si="0"/>
         <v>85.2</v>
       </c>
     </row>
@@ -2930,7 +2919,7 @@
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3">
-        <f>C16+D16/10+E16+F16*2.5</f>
+        <f t="shared" si="0"/>
         <v>83.3</v>
       </c>
     </row>
@@ -2954,7 +2943,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="3">
-        <f>C17+D17/10+E17+F17*2.5</f>
+        <f t="shared" si="0"/>
         <v>80.099999999999994</v>
       </c>
     </row>
@@ -2978,7 +2967,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="3">
-        <f>C18+D18/10+E18+F18*2.5</f>
+        <f t="shared" si="0"/>
         <v>79.900000000000006</v>
       </c>
     </row>
@@ -3000,7 +2989,7 @@
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3">
-        <f>C19+D19/10+E19+F19*2.5</f>
+        <f t="shared" si="0"/>
         <v>77.900000000000006</v>
       </c>
     </row>
@@ -3024,7 +3013,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="3">
-        <f>C20+D20/10+E20+F20*2.5</f>
+        <f t="shared" si="0"/>
         <v>73.3</v>
       </c>
     </row>
@@ -3048,7 +3037,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="3">
-        <f>C21+D21/10+E21+F21*2.5</f>
+        <f t="shared" si="0"/>
         <v>72.900000000000006</v>
       </c>
     </row>
@@ -3070,7 +3059,7 @@
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3">
-        <f>C22+D22/10+E22+F22*2.5</f>
+        <f t="shared" si="0"/>
         <v>68.400000000000006</v>
       </c>
     </row>
@@ -3092,7 +3081,7 @@
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3">
-        <f>C23+D23/10+E23+F23*2.5</f>
+        <f t="shared" si="0"/>
         <v>68.3</v>
       </c>
     </row>
@@ -3116,7 +3105,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="3">
-        <f>C24+D24/10+E24+F24*2.5</f>
+        <f t="shared" si="0"/>
         <v>67.900000000000006</v>
       </c>
     </row>
@@ -3160,7 +3149,7 @@
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3">
-        <f>C26+D26/10+E26+F26*2.5</f>
+        <f t="shared" ref="G26:G36" si="1">C26+D26/10+E26+F26*2.5</f>
         <v>61.8</v>
       </c>
     </row>
@@ -3182,7 +3171,7 @@
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3">
-        <f>C27+D27/10+E27+F27*2.5</f>
+        <f t="shared" si="1"/>
         <v>58.6</v>
       </c>
     </row>
@@ -3204,7 +3193,7 @@
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3">
-        <f>C28+D28/10+E28+F28*2.5</f>
+        <f t="shared" si="1"/>
         <v>58.5</v>
       </c>
     </row>
@@ -3228,7 +3217,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="3">
-        <f>C29+D29/10+E29+F29*2.5</f>
+        <f t="shared" si="1"/>
         <v>55.2</v>
       </c>
     </row>
@@ -3252,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="3">
-        <f>C30+D30/10+E30+F30*2.5</f>
+        <f t="shared" si="1"/>
         <v>50.5</v>
       </c>
     </row>
@@ -3274,7 +3263,7 @@
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3">
-        <f>C31+D31/10+E31+F31*2.5</f>
+        <f t="shared" si="1"/>
         <v>49.8</v>
       </c>
     </row>
@@ -3298,7 +3287,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="3">
-        <f>C32+D32/10+E32+F32*2.5</f>
+        <f t="shared" si="1"/>
         <v>48.1</v>
       </c>
     </row>
@@ -3322,7 +3311,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="3">
-        <f>C33+D33/10+E33+F33*2.5</f>
+        <f t="shared" si="1"/>
         <v>47.4</v>
       </c>
     </row>
@@ -3346,7 +3335,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="3">
-        <f>C34+D34/10+E34+F34*2.5</f>
+        <f t="shared" si="1"/>
         <v>47.3</v>
       </c>
     </row>
@@ -3370,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="3">
-        <f>C35+D35/10+E35+F35*2.5</f>
+        <f t="shared" si="1"/>
         <v>47.2</v>
       </c>
     </row>
@@ -3392,7 +3381,7 @@
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3">
-        <f>C36+D36/10+E36+F36*2.5</f>
+        <f t="shared" si="1"/>
         <v>43.9</v>
       </c>
     </row>
@@ -3480,7 +3469,7 @@
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3">
-        <f>C40+D40/10+E40+F40*2.5</f>
+        <f t="shared" ref="G40:G46" si="2">C40+D40/10+E40+F40*2.5</f>
         <v>42.3</v>
       </c>
     </row>
@@ -3502,7 +3491,7 @@
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3">
-        <f>C41+D41/10+E41+F41*2.5</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
     </row>
@@ -3524,7 +3513,7 @@
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3">
-        <f>C42+D42/10+E42+F42*2.5</f>
+        <f t="shared" si="2"/>
         <v>39.6</v>
       </c>
     </row>
@@ -3548,7 +3537,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="3">
-        <f>C43+D43/10+E43+F43*2.5</f>
+        <f t="shared" si="2"/>
         <v>39.299999999999997</v>
       </c>
     </row>
@@ -3570,7 +3559,7 @@
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3">
-        <f>C44+D44/10+E44+F44*2.5</f>
+        <f t="shared" si="2"/>
         <v>38.1</v>
       </c>
     </row>
@@ -3592,7 +3581,7 @@
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3">
-        <f>C45+D45/10+E45+F45*2.5</f>
+        <f t="shared" si="2"/>
         <v>37.6</v>
       </c>
     </row>
@@ -3614,7 +3603,7 @@
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3">
-        <f>C46+D46/10+E46+F46*2.5</f>
+        <f t="shared" si="2"/>
         <v>33.6</v>
       </c>
     </row>

--- a/railway/station.xlsx
+++ b/railway/station.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24820" windowHeight="34280" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24640" windowHeight="34280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1302,7 +1302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J61" sqref="J61"/>
     </sheetView>
@@ -2529,17 +2529,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M73" sqref="M73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36" x14ac:dyDescent="0.2">

--- a/railway/station.xlsx
+++ b/railway/station.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="21100" yWindow="440" windowWidth="17300" windowHeight="22840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表3" sheetId="5" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="88">
   <si>
     <t>北京</t>
     <rPh sb="0" eb="1">
@@ -352,20 +352,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商丘</t>
-    <rPh sb="0" eb="1">
-      <t>shang'qiu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上饶</t>
-    <rPh sb="0" eb="1">
-      <t>sang'rao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>到发线</t>
     <rPh sb="0" eb="1">
       <t>gc</t>
@@ -693,23 +679,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商丘</t>
-    <rPh sb="0" eb="1">
-      <t>umrg</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上饶</t>
-    <rPh sb="0" eb="1">
-      <t>h</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>qna</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>济南西</t>
     <rPh sb="0" eb="1">
       <t>iyfm</t>
@@ -763,50 +732,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>怀化</t>
-    <rPh sb="0" eb="1">
-      <t>ngwx</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怀化南</t>
-    <rPh sb="0" eb="1">
-      <t>ngwx</t>
+    <t>上海虹桥</t>
+    <rPh sb="0" eb="1">
+      <t>h</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>itx</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>fm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蚌埠</t>
-    <rPh sb="0" eb="1">
-      <t>ben'bu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蚌埠南</t>
-    <rPh sb="0" eb="1">
-      <t>ben'b</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桂林</t>
-    <rPh sb="0" eb="1">
-      <t>sfss</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桂林北</t>
-    <rPh sb="0" eb="1">
-      <t>sfss</t>
+      <t>jast</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆北</t>
+    <rPh sb="0" eb="1">
+      <t>tgyd</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>ux</t>
@@ -814,29 +755,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上海虹桥</t>
-    <rPh sb="0" eb="1">
-      <t>h</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>itx</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jast</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重庆北</t>
-    <rPh sb="0" eb="1">
-      <t>tgyd</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ux</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>始发车次</t>
     <rPh sb="0" eb="1">
       <t>vcnt</t>
@@ -853,23 +771,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>uh</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衡阳</t>
-    <rPh sb="0" eb="1">
-      <t>heng'yang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衡阳东</t>
-    <rPh sb="0" eb="1">
-      <t>heng'yang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ai</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -892,6 +793,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -974,7 +878,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -999,6 +903,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1277,10 +1191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1293,41 +1207,45 @@
     <col min="6" max="6" width="12.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.1640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="7.83203125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="2"/>
+    <col min="9" max="9" width="10.1640625" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3">
         <v>24</v>
@@ -1348,13 +1266,16 @@
         <f>C2+D2/10+E2/5+F2/2+G2*2.5</f>
         <v>189.60000000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="10">
+        <v>70.997940460587913</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C3" s="3">
         <v>30</v>
@@ -1372,16 +1293,19 @@
         <v>3</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H53" si="0">C3+D3/10+E3/5+F3/2+G3*2.5</f>
+        <f t="shared" ref="H3:H47" si="0">C3+D3/10+E3/5+F3/2+G3*2.5</f>
         <v>206.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="10">
+        <v>77.438681894776266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="3">
         <v>26</v>
@@ -1402,13 +1326,16 @@
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="10">
+        <v>28.459090058041564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C5" s="3">
         <v>29</v>
@@ -1429,8 +1356,11 @@
         <f t="shared" si="0"/>
         <v>112.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="10">
+        <v>41.977157835611308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1456,13 +1386,16 @@
         <f t="shared" si="0"/>
         <v>112.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="10">
+        <v>42.164388691256313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C7" s="3">
         <v>16</v>
@@ -1481,13 +1414,16 @@
         <f t="shared" si="0"/>
         <v>40.75</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="10">
+        <v>15.259314735068338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" s="3">
         <v>22</v>
@@ -1506,13 +1442,16 @@
         <f t="shared" si="0"/>
         <v>74.099999999999994</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="10">
+        <v>27.747612806590524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="3">
         <v>32</v>
@@ -1533,8 +1472,11 @@
         <f t="shared" si="0"/>
         <v>121.80000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="10">
+        <v>45.609436435124508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -1560,13 +1502,16 @@
         <f t="shared" si="0"/>
         <v>78.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="10">
+        <v>29.395244336266614</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="3">
         <v>20</v>
@@ -1587,8 +1532,11 @@
         <f t="shared" si="0"/>
         <v>55.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="10">
+        <v>20.93240966111215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -1614,13 +1562,16 @@
         <f t="shared" si="0"/>
         <v>88.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="10">
+        <v>33.177307620295821</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="3">
         <v>22</v>
@@ -1641,13 +1592,16 @@
         <f t="shared" si="0"/>
         <v>69.900000000000006</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="10">
+        <v>26.174873619172441</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C14" s="3">
         <v>14</v>
@@ -1666,13 +1620,16 @@
         <f t="shared" si="0"/>
         <v>35.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="10">
+        <v>13.330836921924734</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C15" s="3">
         <v>28</v>
@@ -1693,8 +1650,11 @@
         <f t="shared" si="0"/>
         <v>138.69999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="10">
+        <v>51.937839355925853</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
@@ -1720,8 +1680,11 @@
         <f t="shared" si="0"/>
         <v>46.599999999999994</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="10">
+        <v>17.449915746114957</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
@@ -1747,13 +1710,16 @@
         <f t="shared" si="0"/>
         <v>69.650000000000006</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="10">
+        <v>26.081258191349935</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" s="3">
         <v>28</v>
@@ -1772,8 +1738,11 @@
         <f t="shared" si="0"/>
         <v>65.150000000000006</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="10">
+        <v>24.396180490544843</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
@@ -1797,8 +1766,11 @@
         <f t="shared" si="0"/>
         <v>30.400000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="10">
+        <v>11.383636023216626</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>43</v>
       </c>
@@ -1822,13 +1794,16 @@
         <f t="shared" si="0"/>
         <v>44.15</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="10">
+        <v>16.53248455345441</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C21" s="3">
         <v>27</v>
@@ -1847,13 +1822,16 @@
         <f t="shared" si="0"/>
         <v>74.099999999999994</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="10">
+        <v>27.747612806590524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C22" s="3">
         <v>18</v>
@@ -1874,13 +1852,16 @@
         <f t="shared" si="0"/>
         <v>56.55</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" s="10">
+        <v>21.175809773450663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C23" s="3">
         <v>6</v>
@@ -1899,13 +1880,16 @@
         <f t="shared" si="0"/>
         <v>12.9</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" s="10">
+        <v>4.8305560756412653</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C24" s="3">
         <v>26</v>
@@ -1926,13 +1910,16 @@
         <f t="shared" si="0"/>
         <v>100.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" s="10">
+        <v>37.595955813518067</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C25" s="3">
         <v>30</v>
@@ -1953,8 +1940,11 @@
         <f t="shared" si="0"/>
         <v>126.9</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="10">
+        <v>47.519191162703613</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -1980,13 +1970,16 @@
         <f t="shared" si="0"/>
         <v>65.050000000000011</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="10">
+        <v>24.358734319415841</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C27" s="3">
         <v>14</v>
@@ -2007,13 +2000,16 @@
         <f t="shared" si="0"/>
         <v>47.25</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" s="10">
+        <v>17.693315858453474</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C28" s="3">
         <v>12</v>
@@ -2034,13 +2030,16 @@
         <f t="shared" si="0"/>
         <v>68.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" s="10">
+        <v>25.65062722336641</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C29" s="3">
         <v>11</v>
@@ -2059,8 +2058,11 @@
         <f t="shared" si="0"/>
         <v>35.65</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" s="10">
+        <v>13.349560007489233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>9</v>
       </c>
@@ -2086,13 +2088,16 @@
         <f t="shared" si="0"/>
         <v>118.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" s="10">
+        <v>44.261374274480431</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C31" s="3">
         <v>28</v>
@@ -2113,13 +2118,16 @@
         <f t="shared" si="0"/>
         <v>119.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" s="10">
+        <v>44.860513012544466</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C32" s="3">
         <v>28</v>
@@ -2140,13 +2148,16 @@
         <f t="shared" si="0"/>
         <v>267.05</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C33" s="3">
         <v>20</v>
@@ -2167,13 +2178,16 @@
         <f t="shared" si="0"/>
         <v>151.4</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" s="10">
+        <v>56.693503089309118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34" s="3">
         <v>23</v>
@@ -2192,13 +2206,16 @@
         <f t="shared" si="0"/>
         <v>54.4</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" s="10">
+        <v>20.37071709417712</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C35" s="3">
         <v>14</v>
@@ -2217,13 +2234,16 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" s="10">
+        <v>13.48062160644074</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C36" s="3">
         <v>30</v>
@@ -2242,13 +2262,16 @@
         <f t="shared" si="0"/>
         <v>100.69999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" s="10">
+        <v>37.708294326905069</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C37" s="3">
         <v>26</v>
@@ -2269,13 +2292,16 @@
         <f t="shared" si="0"/>
         <v>82.55</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" s="10">
+        <v>30.911814266991197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C38" s="3">
         <v>26</v>
@@ -2296,13 +2322,16 @@
         <f t="shared" si="0"/>
         <v>135.1</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" s="10">
+        <v>50.589777195281776</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C39" s="3">
         <v>32</v>
@@ -2323,13 +2352,16 @@
         <f t="shared" si="0"/>
         <v>90.75</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" s="10">
+        <v>33.98240029956937</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C40" s="3">
         <v>30</v>
@@ -2350,13 +2382,16 @@
         <f t="shared" si="0"/>
         <v>100.25</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" s="10">
+        <v>37.539786556824566</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -2367,13 +2402,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C42" s="3">
         <v>6</v>
@@ -2392,13 +2430,16 @@
         <f t="shared" si="0"/>
         <v>22.700000000000003</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" s="10">
+        <v>8.5002808462834683</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C43" s="3">
         <v>34</v>
@@ -2419,13 +2460,16 @@
         <f t="shared" si="0"/>
         <v>138.05000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" s="10">
+        <v>51.694439243587347</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C44" s="3">
         <v>26</v>
@@ -2444,13 +2488,16 @@
         <f t="shared" si="0"/>
         <v>73.400000000000006</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" s="10">
+        <v>27.485489608687512</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -2461,8 +2508,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>32</v>
       </c>
@@ -2486,8 +2536,11 @@
         <f t="shared" si="0"/>
         <v>51.400000000000006</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" s="10">
+        <v>19.247331960307061</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>33</v>
       </c>
@@ -2511,155 +2564,8 @@
         <f t="shared" si="0"/>
         <v>54.6</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="3">
-        <v>23</v>
-      </c>
-      <c r="D48" s="3">
-        <v>207</v>
-      </c>
-      <c r="E48" s="3">
-        <v>21</v>
-      </c>
-      <c r="F48" s="3">
-        <v>20.5</v>
-      </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3">
-        <f t="shared" si="0"/>
-        <v>58.150000000000006</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C49" s="3">
-        <v>13</v>
-      </c>
-      <c r="D49" s="3">
-        <v>286</v>
-      </c>
-      <c r="E49" s="3">
-        <v>10</v>
-      </c>
-      <c r="F49" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3">
-        <f t="shared" si="0"/>
-        <v>44.7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C50" s="3">
-        <v>14</v>
-      </c>
-      <c r="D50" s="3">
-        <v>112</v>
-      </c>
-      <c r="E50" s="3">
-        <v>26</v>
-      </c>
-      <c r="F50" s="3">
-        <v>17.2</v>
-      </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" s="3">
-        <v>11</v>
-      </c>
-      <c r="D51" s="3">
-        <v>157</v>
-      </c>
-      <c r="E51" s="3">
-        <v>4</v>
-      </c>
-      <c r="F51" s="3">
-        <v>6</v>
-      </c>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3">
-        <f t="shared" si="0"/>
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C52" s="3">
-        <v>18</v>
-      </c>
-      <c r="D52" s="3">
-        <v>145</v>
-      </c>
-      <c r="E52" s="3">
-        <v>51</v>
-      </c>
-      <c r="F52" s="3">
-        <v>10</v>
-      </c>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3">
-        <f t="shared" si="0"/>
-        <v>47.7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="3">
-        <v>11</v>
-      </c>
-      <c r="D53" s="3">
-        <v>183</v>
-      </c>
-      <c r="E53" s="3">
-        <v>6</v>
-      </c>
-      <c r="F53" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3">
-        <f t="shared" si="0"/>
-        <v>31.6</v>
+      <c r="I47" s="10">
+        <v>20.445609436435124</v>
       </c>
     </row>
   </sheetData>
@@ -2671,49 +2577,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="3">
         <v>28</v>
@@ -2734,13 +2647,17 @@
         <f>C2+D2/10+E2/5+F2/2+G2*2.5</f>
         <v>267.05</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I2" s="10">
+        <f>H2/2.6705</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C3" s="3">
         <v>30</v>
@@ -2761,13 +2678,17 @@
         <f>C3+D3/10+E3/5+F3/2+G3*2.5</f>
         <v>206.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I3" s="10">
+        <f>H3/2.6705</f>
+        <v>77.438681894776266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="3">
         <v>24</v>
@@ -2788,13 +2709,17 @@
         <f>C4+D4/10+E4/5+F4/2+G4*2.5</f>
         <v>189.60000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I4" s="10">
+        <f>H4/2.6705</f>
+        <v>70.997940460587913</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="3">
         <v>20</v>
@@ -2815,13 +2740,17 @@
         <f>C5+D5/10+E5/5+F5/2+G5*2.5</f>
         <v>151.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I5" s="10">
+        <f>H5/2.6705</f>
+        <v>56.693503089309118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" s="3">
         <v>28</v>
@@ -2842,13 +2771,17 @@
         <f>C6+D6/10+E6/5+F6/2+G6*2.5</f>
         <v>138.69999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I6" s="10">
+        <f>H6/2.6705</f>
+        <v>51.937839355925853</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" s="3">
         <v>34</v>
@@ -2869,13 +2802,17 @@
         <f>C7+D7/10+E7/5+F7/2+G7*2.5</f>
         <v>138.05000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I7" s="10">
+        <f>H7/2.6705</f>
+        <v>51.694439243587347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" s="3">
         <v>26</v>
@@ -2896,13 +2833,17 @@
         <f>C8+D8/10+E8/5+F8/2+G8*2.5</f>
         <v>135.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I8" s="10">
+        <f>H8/2.6705</f>
+        <v>50.589777195281776</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="3">
         <v>30</v>
@@ -2923,13 +2864,17 @@
         <f>C9+D9/10+E9/5+F9/2+G9*2.5</f>
         <v>126.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I9" s="10">
+        <f>H9/2.6705</f>
+        <v>47.519191162703613</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="3">
         <v>32</v>
@@ -2950,13 +2895,17 @@
         <f>C10+D10/10+E10/5+F10/2+G10*2.5</f>
         <v>121.80000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I10" s="10">
+        <f>H10/2.6705</f>
+        <v>45.609436435124508</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C11" s="3">
         <v>28</v>
@@ -2977,8 +2926,12 @@
         <f>C11+D11/10+E11/5+F11/2+G11*2.5</f>
         <v>119.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I11" s="10">
+        <f>H11/2.6705</f>
+        <v>44.860513012544466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -3004,8 +2957,12 @@
         <f>C12+D12/10+E12/5+F12/2+G12*2.5</f>
         <v>118.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I12" s="10">
+        <f>H12/2.6705</f>
+        <v>44.261374274480431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -3031,13 +2988,17 @@
         <f>C13+D13/10+E13/5+F13/2+G13*2.5</f>
         <v>112.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I13" s="10">
+        <f>H13/2.6705</f>
+        <v>42.164388691256313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3">
         <v>29</v>
@@ -3058,13 +3019,17 @@
         <f>C14+D14/10+E14/5+F14/2+G14*2.5</f>
         <v>112.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I14" s="10">
+        <f>H14/2.6705</f>
+        <v>41.977157835611308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" s="3">
         <v>30</v>
@@ -3083,13 +3048,17 @@
         <f>C15+D15/10+E15/5+F15/2+G15*2.5</f>
         <v>100.69999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I15" s="10">
+        <f>H15/2.6705</f>
+        <v>37.708294326905069</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" s="3">
         <v>26</v>
@@ -3110,13 +3079,17 @@
         <f>C16+D16/10+E16/5+F16/2+G16*2.5</f>
         <v>100.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I16" s="10">
+        <f>H16/2.6705</f>
+        <v>37.595955813518067</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17" s="3">
         <v>30</v>
@@ -3137,13 +3110,17 @@
         <f>C17+D17/10+E17/5+F17/2+G17*2.5</f>
         <v>100.25</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I17" s="10">
+        <f>H17/2.6705</f>
+        <v>37.539786556824566</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" s="3">
         <v>32</v>
@@ -3164,8 +3141,12 @@
         <f>C18+D18/10+E18/5+F18/2+G18*2.5</f>
         <v>90.75</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I18" s="10">
+        <f>H18/2.6705</f>
+        <v>33.98240029956937</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -3191,13 +3172,17 @@
         <f>C19+D19/10+E19/5+F19/2+G19*2.5</f>
         <v>88.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I19" s="10">
+        <f>H19/2.6705</f>
+        <v>33.177307620295821</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C20" s="3">
         <v>26</v>
@@ -3218,8 +3203,12 @@
         <f>C20+D20/10+E20/5+F20/2+G20*2.5</f>
         <v>82.55</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I20" s="10">
+        <f>H20/2.6705</f>
+        <v>30.911814266991197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -3245,13 +3234,17 @@
         <f>C21+D21/10+E21/5+F21/2+G21*2.5</f>
         <v>78.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I21" s="10">
+        <f>H21/2.6705</f>
+        <v>29.395244336266614</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22" s="3">
         <v>26</v>
@@ -3272,13 +3265,17 @@
         <f>C22+D22/10+E22/5+F22/2+G22*2.5</f>
         <v>76</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I22" s="10">
+        <f>H22/2.6705</f>
+        <v>28.459090058041564</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23" s="3">
         <v>22</v>
@@ -3297,13 +3294,17 @@
         <f>C23+D23/10+E23/5+F23/2+G23*2.5</f>
         <v>74.099999999999994</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I23" s="10">
+        <f>H23/2.6705</f>
+        <v>27.747612806590524</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C24" s="3">
         <v>27</v>
@@ -3322,13 +3323,17 @@
         <f>C24+D24/10+E24/5+F24/2+G24*2.5</f>
         <v>74.099999999999994</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I24" s="10">
+        <f>H24/2.6705</f>
+        <v>27.747612806590524</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C25" s="3">
         <v>26</v>
@@ -3347,13 +3352,17 @@
         <f>C25+D25/10+E25/5+F25/2+G25*2.5</f>
         <v>73.400000000000006</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I25" s="10">
+        <f>H25/2.6705</f>
+        <v>27.485489608687512</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C26" s="3">
         <v>22</v>
@@ -3374,8 +3383,12 @@
         <f>C26+D26/10+E26/5+F26/2+G26*2.5</f>
         <v>69.900000000000006</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I26" s="10">
+        <f>H26/2.6705</f>
+        <v>26.174873619172441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>36</v>
       </c>
@@ -3401,13 +3414,17 @@
         <f>C27+D27/10+E27/5+F27/2+G27*2.5</f>
         <v>69.650000000000006</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I27" s="10">
+        <f>H27/2.6705</f>
+        <v>26.081258191349935</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C28" s="3">
         <v>12</v>
@@ -3428,13 +3445,17 @@
         <f>C28+D28/10+E28/5+F28/2+G28*2.5</f>
         <v>68.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I28" s="10">
+        <f>H28/2.6705</f>
+        <v>25.65062722336641</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29" s="3">
         <v>28</v>
@@ -3453,8 +3474,12 @@
         <f>C29+D29/10+E29/5+F29/2+G29*2.5</f>
         <v>65.150000000000006</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I29" s="10">
+        <f>H29/2.6705</f>
+        <v>24.396180490544843</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>25</v>
       </c>
@@ -3480,577 +3505,499 @@
         <f>C30+D30/10+E30/5+F30/2+G30*2.5</f>
         <v>65.050000000000011</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="I30" s="10">
+        <f>H30/2.6705</f>
+        <v>24.358734319415841</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C31" s="3">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D31" s="3">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="E31" s="3">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="F31" s="3">
-        <v>20.5</v>
-      </c>
-      <c r="G31" s="3"/>
+        <v>13.5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
       <c r="H31" s="3">
         <f>C31+D31/10+E31/5+F31/2+G31*2.5</f>
-        <v>58.150000000000006</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>56.55</v>
+      </c>
+      <c r="I31" s="10">
+        <f>H31/2.6705</f>
+        <v>21.175809773450663</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="C32" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D32" s="3">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
-        <v>13.5</v>
+        <v>6.8</v>
       </c>
       <c r="G32" s="3">
         <v>1</v>
       </c>
       <c r="H32" s="3">
         <f>C32+D32/10+E32/5+F32/2+G32*2.5</f>
-        <v>56.55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>55.9</v>
+      </c>
+      <c r="I32" s="10">
+        <f>H32/2.6705</f>
+        <v>20.93240966111215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C33" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F33" s="3">
-        <v>6.8</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G33" s="3"/>
       <c r="H33" s="3">
         <f>C33+D33/10+E33/5+F33/2+G33*2.5</f>
-        <v>55.9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>54.6</v>
+      </c>
+      <c r="I33" s="10">
+        <f>H33/2.6705</f>
+        <v>20.445609436435124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C34" s="3">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D34" s="3">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="E34" s="3">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="F34" s="3">
-        <v>10</v>
+        <v>6.8</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3">
         <f>C34+D34/10+E34/5+F34/2+G34*2.5</f>
-        <v>54.6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>54.4</v>
+      </c>
+      <c r="I34" s="10">
+        <f>H34/2.6705</f>
+        <v>20.37071709417712</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C35" s="3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D35" s="3">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="E35" s="3">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="F35" s="3">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3">
         <f>C35+D35/10+E35/5+F35/2+G35*2.5</f>
-        <v>54.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>51.400000000000006</v>
+      </c>
+      <c r="I35" s="10">
+        <f>H35/2.6705</f>
+        <v>19.247331960307061</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="C36" s="3">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D36" s="3">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="E36" s="3">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="F36" s="3">
-        <v>6</v>
-      </c>
-      <c r="G36" s="3"/>
+        <v>19.7</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
       <c r="H36" s="3">
         <f>C36+D36/10+E36/5+F36/2+G36*2.5</f>
-        <v>51.400000000000006</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>47.25</v>
+      </c>
+      <c r="I36" s="10">
+        <f>H36/2.6705</f>
+        <v>17.693315858453474</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="C37" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D37" s="3">
-        <v>145</v>
+        <v>268</v>
       </c>
       <c r="E37" s="3">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="F37" s="3">
-        <v>10</v>
-      </c>
-      <c r="G37" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1</v>
+      </c>
       <c r="H37" s="3">
         <f>C37+D37/10+E37/5+F37/2+G37*2.5</f>
-        <v>47.7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>46.599999999999994</v>
+      </c>
+      <c r="I37" s="10">
+        <f>H37/2.6705</f>
+        <v>17.449915746114957</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="C38" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" s="3">
-        <v>143</v>
+        <v>274</v>
       </c>
       <c r="E38" s="3">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F38" s="3">
-        <v>19.7</v>
-      </c>
-      <c r="G38" s="3">
-        <v>1</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="G38" s="3"/>
       <c r="H38" s="3">
         <f>C38+D38/10+E38/5+F38/2+G38*2.5</f>
-        <v>47.25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>44.15</v>
+      </c>
+      <c r="I38" s="10">
+        <f>H38/2.6705</f>
+        <v>16.53248455345441</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C39" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D39" s="3">
-        <v>268</v>
+        <v>204</v>
       </c>
       <c r="E39" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F39" s="3">
-        <v>3</v>
-      </c>
-      <c r="G39" s="3">
-        <v>1</v>
-      </c>
+        <v>5.9</v>
+      </c>
+      <c r="G39" s="3"/>
       <c r="H39" s="3">
         <f>C39+D39/10+E39/5+F39/2+G39*2.5</f>
-        <v>46.599999999999994</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>40.75</v>
+      </c>
+      <c r="I39" s="10">
+        <f>H39/2.6705</f>
+        <v>15.259314735068338</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C40" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40" s="3">
-        <v>286</v>
+        <v>204</v>
       </c>
       <c r="E40" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F40" s="3">
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3">
         <f>C40+D40/10+E40/5+F40/2+G40*2.5</f>
-        <v>44.7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="I40" s="10">
+        <f>H40/2.6705</f>
+        <v>13.48062160644074</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="C41" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D41" s="3">
-        <v>274</v>
+        <v>198</v>
       </c>
       <c r="E41" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F41" s="3">
-        <v>3.5</v>
+        <v>7.3</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3">
         <f>C41+D41/10+E41/5+F41/2+G41*2.5</f>
-        <v>44.15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>35.65</v>
+      </c>
+      <c r="I41" s="10">
+        <f>H41/2.6705</f>
+        <v>13.349560007489233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C42" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D42" s="3">
-        <v>204</v>
+        <v>96</v>
       </c>
       <c r="E42" s="3">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="F42" s="3">
-        <v>5.9</v>
+        <v>10</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3">
         <f>C42+D42/10+E42/5+F42/2+G42*2.5</f>
-        <v>40.75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>35.6</v>
+      </c>
+      <c r="I42" s="10">
+        <f>H42/2.6705</f>
+        <v>13.330836921924734</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C43" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D43" s="3">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="E43" s="3">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F43" s="3">
-        <v>17.2</v>
+        <v>1.2</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3">
         <f>C43+D43/10+E43/5+F43/2+G43*2.5</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>30.400000000000002</v>
+      </c>
+      <c r="I43" s="10">
+        <f>H43/2.6705</f>
+        <v>11.383636023216626</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C44" s="3">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D44" s="3">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F44" s="3">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3">
         <f>C44+D44/10+E44/5+F44/2+G44*2.5</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>22.700000000000003</v>
+      </c>
+      <c r="I44" s="10">
+        <f>H44/2.6705</f>
+        <v>8.5002808462834683</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C45" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D45" s="3">
-        <v>198</v>
+        <v>60</v>
       </c>
       <c r="E45" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F45" s="3">
-        <v>7.3</v>
+        <v>1</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3">
         <f>C45+D45/10+E45/5+F45/2+G45*2.5</f>
-        <v>35.65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>12.9</v>
+      </c>
+      <c r="I45" s="10">
+        <f>H45/2.6705</f>
+        <v>4.8305560756412653</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="3">
-        <v>14</v>
-      </c>
-      <c r="D46" s="3">
-        <v>96</v>
-      </c>
-      <c r="E46" s="3">
-        <v>35</v>
-      </c>
-      <c r="F46" s="3">
-        <v>10</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3">
         <f>C46+D46/10+E46/5+F46/2+G46*2.5</f>
-        <v>35.6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="10">
+        <f>H46/2.6705</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" s="3">
-        <v>11</v>
-      </c>
-      <c r="D47" s="3">
-        <v>183</v>
-      </c>
-      <c r="E47" s="3">
-        <v>6</v>
-      </c>
-      <c r="F47" s="3">
-        <v>2.2000000000000002</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3">
         <f>C47+D47/10+E47/5+F47/2+G47*2.5</f>
-        <v>31.6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="3">
-        <v>11</v>
-      </c>
-      <c r="D48" s="3">
-        <v>157</v>
-      </c>
-      <c r="E48" s="3">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3">
-        <v>6</v>
-      </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3">
-        <f>C48+D48/10+E48/5+F48/2+G48*2.5</f>
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="3">
-        <v>16</v>
-      </c>
-      <c r="D49" s="3">
-        <v>46</v>
-      </c>
-      <c r="E49" s="3">
-        <v>46</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3">
-        <f>C49+D49/10+E49/5+F49/2+G49*2.5</f>
-        <v>30.400000000000002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" s="3">
-        <v>6</v>
-      </c>
-      <c r="D50" s="3">
-        <v>74</v>
-      </c>
-      <c r="E50" s="3">
-        <v>44</v>
-      </c>
-      <c r="F50" s="3">
-        <v>1</v>
-      </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3">
-        <f>C50+D50/10+E50/5+F50/2+G50*2.5</f>
-        <v>22.700000000000003</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" s="3">
-        <v>6</v>
-      </c>
-      <c r="D51" s="3">
-        <v>60</v>
-      </c>
-      <c r="E51" s="3">
-        <v>2</v>
-      </c>
-      <c r="F51" s="3">
-        <v>1</v>
-      </c>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3">
-        <f>C51+D51/10+E51/5+F51/2+G51*2.5</f>
-        <v>12.9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3">
-        <f>C52+D52/10+E52/5+F52/2+G52*2.5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3">
-        <f>C53+D53/10+E53/5+F53/2+G53*2.5</f>
+      <c r="I47" s="10">
+        <f>H47/2.6705</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H53">
-    <sortCondition descending="1" ref="H1"/>
+  <sortState ref="A2:I47">
+    <sortCondition descending="1" ref="I1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
